--- a/output/altas_cli_mes_0.xlsx
+++ b/output/altas_cli_mes_0.xlsx
@@ -534,7 +534,7 @@
         <v>25</v>
       </c>
       <c r="Q2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
